--- a/Area de Proceso MA/TABME/TABME_V0.1_2016.xlsx
+++ b/Area de Proceso MA/TABME/TABME_V0.1_2016.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDS1\DEV-SOFT\Area de Proceso MA\TABME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PDS1\DEV-SOFT\Area de Proceso MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
     <sheet name="FMNCONPRO" sheetId="6" r:id="rId2"/>
     <sheet name="FMVREQM" sheetId="7" r:id="rId3"/>
     <sheet name="FMEXRI" sheetId="8" r:id="rId4"/>
-    <sheet name="FMICIC" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="FMICIC" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="71">
   <si>
     <t xml:space="preserve">Proyecto </t>
   </si>
@@ -1408,17 +1408,17 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,11 +1664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112056736"/>
-        <c:axId val="112057296"/>
+        <c:axId val="170353096"/>
+        <c:axId val="170353488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112056736"/>
+        <c:axId val="170353096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1767,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112057296"/>
+        <c:crossAx val="170353488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1775,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112057296"/>
+        <c:axId val="170353488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112056736"/>
+        <c:crossAx val="170353096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2156,11 +2156,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="114497264"/>
-        <c:axId val="114497824"/>
+        <c:axId val="170354272"/>
+        <c:axId val="170354664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114497264"/>
+        <c:axId val="170354272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2203,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114497824"/>
+        <c:crossAx val="170354664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2211,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114497824"/>
+        <c:axId val="170354664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2232,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114497264"/>
+        <c:crossAx val="170354272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2455,11 +2455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114500624"/>
-        <c:axId val="114501184"/>
+        <c:axId val="170355448"/>
+        <c:axId val="194961616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114500624"/>
+        <c:axId val="170355448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,7 +2557,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114501184"/>
+        <c:crossAx val="194961616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114501184"/>
+        <c:axId val="194961616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2671,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114500624"/>
+        <c:crossAx val="170355448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2928,12 +2928,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="114503424"/>
-        <c:axId val="198737664"/>
+        <c:axId val="194962400"/>
+        <c:axId val="194962792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="114503424"/>
+        <c:axId val="194962400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +2970,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198737664"/>
+        <c:crossAx val="194962792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2978,7 +2978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198737664"/>
+        <c:axId val="194962792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3026,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114503424"/>
+        <c:crossAx val="194962400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3112,6 +3112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3209,6 +3210,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3279,11 +3281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198740464"/>
-        <c:axId val="198741024"/>
+        <c:axId val="194965144"/>
+        <c:axId val="194965536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198740464"/>
+        <c:axId val="194965144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,6 +3322,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3386,7 +3389,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198741024"/>
+        <c:crossAx val="194965536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3394,7 +3397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198741024"/>
+        <c:axId val="194965536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,6 +3445,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3475,7 +3479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198740464"/>
+        <c:crossAx val="194965144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,11 +3733,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="198743264"/>
-        <c:axId val="198743824"/>
+        <c:axId val="194966712"/>
+        <c:axId val="194967104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198743264"/>
+        <c:axId val="194966712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,7 +3832,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198743824"/>
+        <c:crossAx val="194967104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3836,7 +3840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198743824"/>
+        <c:axId val="194967104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3943,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198743264"/>
+        <c:crossAx val="194966712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4135,6 +4139,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4205,11 +4210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198901168"/>
-        <c:axId val="198901728"/>
+        <c:axId val="194967888"/>
+        <c:axId val="194968280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198901168"/>
+        <c:axId val="194967888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,6 +4246,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4307,7 +4313,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198901728"/>
+        <c:crossAx val="194968280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4315,7 +4321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198901728"/>
+        <c:axId val="194968280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,6 +4379,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4406,7 +4413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198901168"/>
+        <c:crossAx val="194967888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4626,6 +4633,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4694,11 +4702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="198903968"/>
-        <c:axId val="198904528"/>
+        <c:axId val="194966320"/>
+        <c:axId val="194964752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198903968"/>
+        <c:axId val="194966320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +4749,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198904528"/>
+        <c:crossAx val="194964752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4749,7 +4757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198904528"/>
+        <c:axId val="194964752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,7 +4778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198903968"/>
+        <c:crossAx val="194966320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10519,7 +10527,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -10943,17 +10951,17 @@
         <f>FMICIC!E33</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="N21" s="89">
+      <c r="N21" s="89" t="e">
         <f>FMICIC!F33</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O21" s="13">
         <f>FMICIC!H33</f>
         <v>0</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="89" t="e">
         <f>FMICIC!I33</f>
-        <v>7.2072072072072071E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
@@ -11125,8 +11133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12010,7 +12018,7 @@
       <c r="G15" s="143"/>
       <c r="H15" s="143"/>
       <c r="I15" s="143"/>
-      <c r="J15" s="151"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="29" t="s">
@@ -12374,11 +12382,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="153"/>
-      <c r="C43" s="154"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
       <c r="D43" s="59">
         <f>D41/D42*100</f>
         <v>0</v>
@@ -12442,17 +12450,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12584,8 +12592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13132,8 +13140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13551,22 +13559,22 @@
       <c r="D26" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="45">
-        <v>0</v>
-      </c>
-      <c r="F26" s="45">
-        <v>0</v>
-      </c>
-      <c r="G26" s="45">
-        <v>38</v>
-      </c>
-      <c r="H26" s="46">
+      <c r="E26" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="46" t="e">
         <f>F26/G26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="47" t="e">
         <f>+H26</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21">
@@ -13637,8 +13645,8 @@
       <c r="E31" s="13">
         <v>8</v>
       </c>
-      <c r="F31" s="159">
-        <v>0</v>
+      <c r="F31" s="159" t="s">
+        <v>70</v>
       </c>
       <c r="G31" s="159"/>
       <c r="H31" s="149"/>
@@ -13658,8 +13666,8 @@
       <c r="E32" s="82">
         <v>37</v>
       </c>
-      <c r="F32" s="159">
-        <v>38</v>
+      <c r="F32" s="159" t="s">
+        <v>70</v>
       </c>
       <c r="G32" s="159"/>
       <c r="H32" s="54" t="s">
@@ -13670,11 +13678,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="27" thickBot="1">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
       <c r="D33" s="59">
         <f>D31/D32</f>
         <v>0</v>
@@ -13683,18 +13691,18 @@
         <f>E31/E32</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="F33" s="161">
+      <c r="F33" s="161" t="e">
         <f>F31/F32</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G33" s="161"/>
       <c r="H33" s="61">
         <f>+K33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="62" t="e">
         <f>AVERAGE(D33:F33)</f>
-        <v>7.2072072072072071E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -13746,13 +13754,19 @@
       <c r="B43" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="36" t="e">
         <f>F31/F32</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="H30:I31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
@@ -13761,12 +13775,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <conditionalFormatting sqref="J31">
     <cfRule type="iconSet" priority="4">
